--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.51</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1686,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1702,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1718,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +794,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,150 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2841</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +888,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1056,36 +918,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1094,36 +956,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1142,22 +1004,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1196,7 +1058,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1226,36 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1264,36 +1126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1312,22 +1174,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1345,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,7 +1228,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1396,36 +1258,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>162416</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1436,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1490,36 +1466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1528,36 +1504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1566,34 +1542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1607,144 +1585,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -699,27 +716,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -747,19 +764,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +785,174 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -854,176 +1039,6 @@
       </c>
       <c r="H2" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1073,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1088,36 +1103,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1126,36 +1141,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1174,22 +1189,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1202,6 +1217,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1409,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1579,7 +1764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01113-长实集团.xlsx
+++ b/数据整理/stocks/港股/01113-长实集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +908,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -764,19 +951,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -851,26 +1038,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -884,27 +1071,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -932,19 +1119,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -953,6 +1140,174 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,176 +1394,6 @@
       </c>
       <c r="H2" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1428,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1273,36 +1458,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1311,36 +1496,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1359,22 +1544,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1387,6 +1572,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1594,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1762,174 +2117,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>